--- a/maps/SubstanceUse-DrugUse.xlsx
+++ b/maps/SubstanceUse-DrugUse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/jacob_engel_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_C233CE142FFFD580DB94AA4299532E306390057D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3BAC1AC-6782-6543-A701-EF00D9B800FE}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_C233CE142FFFD580DB94AA4299532E306390057D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC48F98B-2AF9-F544-A8AB-68DDC4C5D9EE}"/>
   <bookViews>
     <workbookView xWindow="26620" yWindow="620" windowWidth="24340" windowHeight="13420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,7 +361,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -440,6 +440,9 @@
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -457,9 +460,6 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">

--- a/maps/SubstanceUse-DrugUse.xlsx
+++ b/maps/SubstanceUse-DrugUse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/jacob_engel_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_C233CE142FFFD580DB94AA4299532E306390057D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC48F98B-2AF9-F544-A8AB-68DDC4C5D9EE}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_C233CE142FFFD580DB94AA4299532E306390057D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F4C049C-4502-244A-A2EC-ABB5A795045B}"/>
   <bookViews>
     <workbookView xWindow="26620" yWindow="620" windowWidth="24340" windowHeight="13420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,7 +361,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -440,9 +440,6 @@
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -460,6 +457,9 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
